--- a/CPU-Logging-Dashboard/Logging-Service/Logs/cpu_ram_rdp_log_2025-10-17_09-52-36.xlsx
+++ b/CPU-Logging-Dashboard/Logging-Service/Logs/cpu_ram_rdp_log_2025-10-17_09-52-36.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5572,6 +5572,8427 @@
         <v>0</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:09:57</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8</v>
+      </c>
+      <c r="C246" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:03</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C247" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:09</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:15</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C249" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:21</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C250" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:27</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="C251" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:34</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:40</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C253" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:46</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C254" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:52</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:10:58</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C256" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:04</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C257" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:11</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C258" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:17</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>9</v>
+      </c>
+      <c r="C259" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:23</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C260" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:29</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C261" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:35</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C262" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:41</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>10</v>
+      </c>
+      <c r="C263" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:48</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C264" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:11:54</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C265" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>6</v>
+      </c>
+      <c r="C266" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:06</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C267" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:12</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C268" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:18</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C269" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:25</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C270" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:31</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C271" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:37</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C272" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:43</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C273" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:49</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C274" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:12:56</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C275" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:02</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C276" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:08</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C277" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:14</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C278" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:20</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C279" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:26</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>9</v>
+      </c>
+      <c r="C280" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:32</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C281" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:39</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C282" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:45</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:51</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="C284" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:13:57</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C285" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:03</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C286" t="n">
+        <v>61</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:10</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C287" t="n">
+        <v>61</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:16</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C288" t="n">
+        <v>61</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:22</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C289" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:28</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C290" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:34</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C291" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:40</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:47</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C293" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:53</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C294" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:14:59</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>4</v>
+      </c>
+      <c r="C295" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:05</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C296" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:11</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C297" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:17</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C298" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:23</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>5</v>
+      </c>
+      <c r="C299" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:30</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C300" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:36</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C301" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:42</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>6</v>
+      </c>
+      <c r="C302" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:48</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C303" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:15:54</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C304" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:01</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:07</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C306" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:13</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C307" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:19</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C308" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:25</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C309" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:32</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C310" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:38</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>6</v>
+      </c>
+      <c r="C311" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:44</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C312" t="n">
+        <v>60</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:50</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>6</v>
+      </c>
+      <c r="C313" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:16:56</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>7</v>
+      </c>
+      <c r="C314" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:02</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C315" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:09</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:15</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C317" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:21</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C318" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:27</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C319" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:33</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5</v>
+      </c>
+      <c r="C320" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:40</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="C321" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:46</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:52</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C323" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:17:58</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C324" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:04</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C325" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:10</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C326" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:17</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>61</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:23</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>12</v>
+      </c>
+      <c r="C328" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:29</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C329" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:35</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C330" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:41</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C331" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:48</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C332" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:18:54</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C333" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C334" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:06</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C335" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:12</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C336" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:18</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="C337" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:24</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C338" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:31</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="C339" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:37</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="C340" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:43</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C341" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:49</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C342" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:19:55</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C343" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:02</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C344" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:08</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C345" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E345" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:14</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C346" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:20</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C347" t="n">
+        <v>62</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:24</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C348" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:28</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C349" t="n">
+        <v>62</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:33</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C350" t="n">
+        <v>62</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:37</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C351" t="n">
+        <v>62</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E351" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:41</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C352" t="n">
+        <v>62</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:45</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C353" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:49</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C354" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:53</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C355" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:20:57</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C356" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:02</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C357" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:06</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C358" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:10</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C359" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:14</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C360" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:18</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>6</v>
+      </c>
+      <c r="C361" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:22</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C362" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:27</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>6</v>
+      </c>
+      <c r="C363" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:31</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C364" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E364" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:35</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C365" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:39</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C366" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E366" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:43</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C367" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:47</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C368" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:52</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C369" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:21:56</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C370" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>6</v>
+      </c>
+      <c r="C371" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:04</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>5</v>
+      </c>
+      <c r="C372" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:08</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C373" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:12</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C374" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:16</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C375" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:21</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C376" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:25</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C377" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:29</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C378" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:33</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C379" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:37</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C380" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:41</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C381" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:45</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C382" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:50</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C383" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:54</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C384" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:22:58</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="C385" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:02</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:06</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C387" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:10</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C388" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:14</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C389" t="n">
+        <v>61</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:19</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C390" t="n">
+        <v>61</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:23</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C391" t="n">
+        <v>61</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:27</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C392" t="n">
+        <v>61</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:31</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>5</v>
+      </c>
+      <c r="C393" t="n">
+        <v>61</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:35</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C394" t="n">
+        <v>61</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:39</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C395" t="n">
+        <v>61</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:44</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C396" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E396" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:48</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C397" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E397" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:52</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C398" t="n">
+        <v>61</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E398" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:23:56</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>5</v>
+      </c>
+      <c r="C399" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E399" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C400" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:04</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C401" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E401" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:08</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C402" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E402" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:13</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C403" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E403" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:17</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C404" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:21</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>7</v>
+      </c>
+      <c r="C405" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E405" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:25</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>7</v>
+      </c>
+      <c r="C406" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E406" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:29</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>6</v>
+      </c>
+      <c r="C407" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E407" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:33</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C408" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E408" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:37</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C409" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E409" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:42</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C410" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:46</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C411" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E411" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:50</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>6</v>
+      </c>
+      <c r="C412" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E412" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:54</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C413" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:24:58</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="C414" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:02</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C415" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:06</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C416" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E416" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:11</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>9</v>
+      </c>
+      <c r="C417" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:15</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="C418" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:19</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C419" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:23</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C420" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:27</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C421" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:31</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C422" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:35</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C423" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:40</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C424" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E424" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:44</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C425" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:48</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C426" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E426" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:52</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>4</v>
+      </c>
+      <c r="C427" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E427" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:25:56</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C428" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:00</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C429" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:04</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C430" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:09</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C431" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E431" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:13</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C432" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E432" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:17</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C433" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E433" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:21</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C434" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:25</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C435" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:29</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C436" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E436" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:33</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="C437" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E437" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:38</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="C438" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E438" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:42</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C439" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:46</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C440" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:50</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C441" t="n">
+        <v>61</v>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:54</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C442" t="n">
+        <v>61</v>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:26:58</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C443" t="n">
+        <v>61</v>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E443" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:03</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C444" t="n">
+        <v>61</v>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:07</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C445" t="n">
+        <v>61</v>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:11</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="C446" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:15</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C447" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E447" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:19</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C448" t="n">
+        <v>62</v>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:23</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C449" t="n">
+        <v>62</v>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E449" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:27</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C450" t="n">
+        <v>62</v>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:32</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C451" t="n">
+        <v>62</v>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:36</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C452" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:40</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C453" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:44</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C454" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:48</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C455" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:52</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C456" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E456" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:27:57</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C457" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E457" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:01</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C458" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:05</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C459" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:09</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>10</v>
+      </c>
+      <c r="C460" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E460" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:13</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C461" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E461" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:17</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C462" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:22</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C463" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E463" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:26</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C464" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E464" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:30</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>16</v>
+      </c>
+      <c r="C465" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E465" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:34</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="C466" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:38</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C467" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:42</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>11</v>
+      </c>
+      <c r="C468" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:46</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C469" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E469" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:51</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C470" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:55</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C471" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E471" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:28:59</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="C472" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:03</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>10</v>
+      </c>
+      <c r="C473" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E473" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:07</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C474" t="n">
+        <v>62.3</v>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:11</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C475" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E475" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:16</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C476" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:20</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C477" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:24</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>5</v>
+      </c>
+      <c r="C478" t="n">
+        <v>62</v>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:28</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C479" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:32</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C480" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:36</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C481" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E481" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:41</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C482" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:45</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C483" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E483" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:49</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="C484" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:53</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C485" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E485" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:29:57</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>6</v>
+      </c>
+      <c r="C486" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:01</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C487" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:06</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C488" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:10</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C489" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E489" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:14</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C490" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E490" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:18</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C491" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:22</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="C492" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E492" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:26</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C493" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E493" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:31</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C494" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E494" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:35</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C495" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:39</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C496" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:43</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C497" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:47</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C498" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:51</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C499" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:30:56</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C500" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E500" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C501" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:04</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>6</v>
+      </c>
+      <c r="C502" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:08</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C503" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:12</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C504" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E504" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:16</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C505" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:23</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C506" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:29</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C507" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:33</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C508" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E508" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:37</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C509" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E509" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:41</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C510" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:45</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C511" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:49</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:54</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C513" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:31:58</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C514" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:02</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C515" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:06</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>10</v>
+      </c>
+      <c r="C516" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:10</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C517" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:14</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C518" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:19</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>7</v>
+      </c>
+      <c r="C519" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:23</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C520" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:27</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C521" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:31</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C522" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:35</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>6</v>
+      </c>
+      <c r="C523" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:39</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C524" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:44</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C525" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:48</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C526" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:52</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C527" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:32:56</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C528" t="n">
+        <v>61.4</v>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C529" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:04</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C530" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:08</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C531" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:13</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C532" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:17</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="C533" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:21</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C534" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:25</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="C535" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:29</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C536" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:33</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>8</v>
+      </c>
+      <c r="C537" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:38</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C538" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:42</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C539" t="n">
+        <v>62.4</v>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:46</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="C540" t="n">
+        <v>61.9</v>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:50</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C541" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:54</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C542" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:33:58</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C543" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:02</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="C544" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:07</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="C545" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:11</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C546" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:15</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C547" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:19</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C548" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:23</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C549" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:27</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C550" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:32</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C551" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:36</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C552" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:40</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C553" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:44</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C554" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:48</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C555" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:52</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C556" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:34:58</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C557" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:02</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C558" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:06</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C559" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:10</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C560" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:14</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C561" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:18</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C562" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:23</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C563" t="n">
+        <v>60.3</v>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:27</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C564" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:31</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C565" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:35</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C566" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E566" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:39</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C567" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:44</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="C568" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E568" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:48</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="C569" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E569" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:52</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C570" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:35:56</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C571" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E571" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:00</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C572" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:04</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="C573" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:08</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C574" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:13</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>11</v>
+      </c>
+      <c r="C575" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E575" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:17</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C576" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E576" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:21</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C577" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E577" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:25</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C578" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E578" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:29</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C579" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E579" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:33</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C580" t="n">
+        <v>59.8</v>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E580" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:38</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C581" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E581" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:42</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="C582" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E582" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:46</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C583" t="n">
+        <v>60</v>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E583" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:50</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>4</v>
+      </c>
+      <c r="C584" t="n">
+        <v>59.9</v>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E584" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:54</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C585" t="n">
+        <v>60</v>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E585" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:36:58</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C586" t="n">
+        <v>60.1</v>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E586" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:03</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C587" t="n">
+        <v>60.4</v>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E587" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:07</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C588" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E588" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:11</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="C589" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E589" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:15</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C590" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:19</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C591" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E591" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:23</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C592" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E592" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:27</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C593" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E593" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:32</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="C594" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E594" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:36</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="C595" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:40</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C596" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E596" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:44</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="C597" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E597" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:48</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C598" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E598" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:53</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C599" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:37:57</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C600" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:01</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C601" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E601" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:05</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C602" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E602" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:09</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C603" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E603" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:13</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C604" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E604" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:17</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C605" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E605" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:22</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="C606" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:26</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C607" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E607" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:30</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="C608" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E608" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:34</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="C609" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E609" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:38</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C610" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E610" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:42</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C611" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:47</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="C612" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E612" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:51</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="C613" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E613" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:55</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="C614" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E614" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:38:59</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C615" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E615" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:03</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C616" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E616" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:10</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="C617" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E617" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:14</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C618" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E618" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:18</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="C619" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E619" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:22</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="C620" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E620" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:26</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="C621" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E621" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:30</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C622" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E622" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:35</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C623" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E623" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:39</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C624" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:43</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="C625" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E625" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:47</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="C626" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:51</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C627" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E627" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:55</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C628" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E628" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:39:59</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="C629" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D629" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E629" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:04</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C630" t="n">
+        <v>61.6</v>
+      </c>
+      <c r="D630" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E630" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:08</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="C631" t="n">
+        <v>61.7</v>
+      </c>
+      <c r="D631" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:12</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C632" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D632" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:16</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="C633" t="n">
+        <v>61.2</v>
+      </c>
+      <c r="D633" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:20</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="C634" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D634" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:24</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C635" t="n">
+        <v>62</v>
+      </c>
+      <c r="D635" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:29</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C636" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D636" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:33</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C637" t="n">
+        <v>62.2</v>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:37</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>8</v>
+      </c>
+      <c r="C638" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:41</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C639" t="n">
+        <v>62.1</v>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:45</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C640" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:49</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C641" t="n">
+        <v>61.8</v>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:54</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="C642" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:40:58</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C643" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:41:02</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C644" t="n">
+        <v>63</v>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E644" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:41:06</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="C645" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E645" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>2025-10-17 10:41:10</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="C646" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>Nein</t>
+        </is>
+      </c>
+      <c r="E646" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
